--- a/tables/partTable.xlsx
+++ b/tables/partTable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="612">
   <si>
     <t>LINE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -449,34 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diff_rolling_force1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diff_rolling_force7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TN\\L_F1H_DIFRLFCFBK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,34 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total_rolling_force1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TN\\L2_F1H_TLRLFCFBK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -846,10 +790,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fm_center_ofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TN\\L_FA_F7XCENTOFSFLT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1206,14 +1146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>diff_rolling_force1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total_rolling_force1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ct_gap1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1246,14 +1178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>r2_center_ofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fm_center_ofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>R2DW\\Calc_Length</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,28 +1316,6 @@
     <t>calc_length7</t>
   </si>
   <si>
-    <t>pos_shift1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pos_shift2</t>
-  </si>
-  <si>
-    <t>pos_shift3</t>
-  </si>
-  <si>
-    <t>pos_shift4</t>
-  </si>
-  <si>
-    <t>pos_shift5</t>
-  </si>
-  <si>
-    <t>pos_shift6</t>
-  </si>
-  <si>
-    <t>pos_shift7</t>
-  </si>
-  <si>
     <t>F7_POND</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,798 +1382,872 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>crown25_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\MFG_PROFB_WEDGE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\MFG_PROFB_CROWN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown40_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\MFG_PROFB_WEDGE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\MFG_PROFB_CROWN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge40_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown70_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\MFG_PROFB_WEDGE4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2\\MFG_PROFB_CROWN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge70_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wedge100_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown100_fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_f67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F1RLCFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F2RLCFL</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F3RLCFL</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F4RLCFL</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F5RLCFL</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F6RLCFL</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7RLCFL</t>
+  </si>
+  <si>
+    <t>FM_POND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L2_FA_F12ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L2_FA_F23ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L2_FA_F34ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L2_FA_F45ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L2_FA_F56ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L2_FA_F67ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F12ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F23ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F34ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F45ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F56ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F67ISCFLPER</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F2TRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F3TRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F4TRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F5TRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F6TRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7TRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\\L_FA_F1TRLGLUBOILON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_FA_F1BRLGLUBOILON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_FA_F2BRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F3BRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F4BRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F5BRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F6BRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F7BRLGLUBOILON</t>
+  </si>
+  <si>
+    <t>strip_spray_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strip_spray_on2</t>
+  </si>
+  <si>
+    <t>strip_spray_on3</t>
+  </si>
+  <si>
+    <t>strip_spray_on4</t>
+  </si>
+  <si>
+    <t>strip_spray_on5</t>
+  </si>
+  <si>
+    <t>strip_spray_on6</t>
+  </si>
+  <si>
+    <t>strip_spray_on7</t>
+  </si>
+  <si>
+    <t>strip_spray_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_FA_F1STSPON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_FA_F2STSPON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F3STSPON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F4STSPON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F5STSPON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F6STSPON</t>
+  </si>
+  <si>
+    <t>TN\L_FA_F7STSPON</t>
+  </si>
+  <si>
+    <t>r1_ent_dsc_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1_ext_dsc_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1_ent_dsc_on2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1_ext_dsc_on2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1_ent_dsc_on3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1_ext_dsc_on3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L2_R1_R1EXTDSCON</t>
+  </si>
+  <si>
+    <t>TN\L2_R1_R1ENTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F1BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F2BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F3BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F4BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F5BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F6BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7BRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F1TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F2TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F3TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F4TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F5TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F6TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\\L_FA_F7TRLGLUBFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on1</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on1</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_R1_R1ENTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_R1_R1EXTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on2</t>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on2</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on3</t>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on3</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on4</t>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on4</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on5</t>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on5</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on6</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on6</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on7</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on7</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on8</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on8</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on9</t>
+  </si>
+  <si>
+    <t>r2_ext_dsc_on9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on9</t>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L2_R2_R2ENTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L2_R2_R2EXTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1_POND_P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2_POND_P9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_R2_R2ENTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TN\L_R2_R2EXTDSCON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_ent_dsc_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r1_ent_dsc_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rgs1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clg_calc_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_perc12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_perc23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_perc34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_perc45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_perc56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isc_flow_perc67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top_rgl_on7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bot_rgl_on1</t>
+  </si>
+  <si>
+    <t>bot_rgl_on2</t>
+  </si>
+  <si>
+    <t>bot_rgl_on3</t>
+  </si>
+  <si>
+    <t>bot_rgl_on4</t>
+  </si>
+  <si>
+    <t>bot_rgl_on5</t>
+  </si>
+  <si>
+    <t>bot_rgl_on6</t>
+  </si>
+  <si>
+    <t>bot_rgl_on7</t>
+  </si>
+  <si>
+    <t>r2_cent_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r2_cent_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm_cent_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fm_cent_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff_roll_force1</t>
+  </si>
+  <si>
+    <t>diff_roll_force2</t>
+  </si>
+  <si>
+    <t>diff_roll_force3</t>
+  </si>
+  <si>
+    <t>diff_roll_force4</t>
+  </si>
+  <si>
+    <t>diff_roll_force5</t>
+  </si>
+  <si>
+    <t>diff_roll_force6</t>
+  </si>
+  <si>
+    <t>diff_roll_force7</t>
+  </si>
+  <si>
+    <t>total_roll_force1</t>
+  </si>
+  <si>
+    <t>total_roll_force2</t>
+  </si>
+  <si>
+    <t>total_roll_force3</t>
+  </si>
+  <si>
+    <t>total_roll_force4</t>
+  </si>
+  <si>
+    <t>total_roll_force5</t>
+  </si>
+  <si>
+    <t>total_roll_force6</t>
+  </si>
+  <si>
+    <t>total_roll_force7</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act1</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act2</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act3</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act4</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act5</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act6</t>
+  </si>
+  <si>
+    <t>wr_cool_flow_act7</t>
+  </si>
+  <si>
     <t>wedge25_fit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>crown25_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\MFG_PROFB_WEDGE2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\MFG_PROFB_CROWN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown40_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\MFG_PROFB_WEDGE3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\MFG_PROFB_CROWN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge40_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown70_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\MFG_PROFB_WEDGE4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2\\MFG_PROFB_CROWN4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge70_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wedge100_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crown100_fit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isc_flow_f67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wr_cooling_act_flow7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F1RLCFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F2RLCFL</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F3RLCFL</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F4RLCFL</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F5RLCFL</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F6RLCFL</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F7RLCFL</t>
-  </si>
-  <si>
-    <t>f1_f2_isc_flow_perc</t>
-  </si>
-  <si>
-    <t>FM_POND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L2_FA_F12ISCFLPER</t>
-  </si>
-  <si>
-    <t>f2_f3_isc_flow_perc</t>
-  </si>
-  <si>
-    <t>TN\\L2_FA_F23ISCFLPER</t>
-  </si>
-  <si>
-    <t>f3_f4_isc_flow_perc</t>
-  </si>
-  <si>
-    <t>TN\\L2_FA_F34ISCFLPER</t>
-  </si>
-  <si>
-    <t>f4_f5_isc_flow_perc</t>
-  </si>
-  <si>
-    <t>TN\\L2_FA_F45ISCFLPER</t>
-  </si>
-  <si>
-    <t>f5_f6_isc_flow_perc</t>
-  </si>
-  <si>
-    <t>TN\\L2_FA_F56ISCFLPER</t>
-  </si>
-  <si>
-    <t>f6_f7_isc_flow_perc</t>
-  </si>
-  <si>
-    <t>TN\\L2_FA_F67ISCFLPER</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F12ISCFLPER</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F23ISCFLPER</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F34ISCFLPER</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F45ISCFLPER</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F56ISCFLPER</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F67ISCFLPER</t>
-  </si>
-  <si>
-    <t>top_rgl_oil_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_rgl_oil_on2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_rgl_oil_on5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_rgl_oil_on7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F2TRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F3TRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F4TRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F5TRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>top_rgl_oil_on6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F6TRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\\L_FA_F7TRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>top_rgl_oil_on3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_rgl_oil_on4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_rgl_oil_on6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F1TRLGLUBOILON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on1</t>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on2</t>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on3</t>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on4</t>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on5</t>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on6</t>
-  </si>
-  <si>
-    <t>bot_rgl_oil_on7</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F1BRLGLUBOILON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_FA_F2BRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F3BRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F4BRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F5BRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F6BRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F7BRLGLUBOILON</t>
-  </si>
-  <si>
-    <t>strip_spray_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strip_spray_on2</t>
-  </si>
-  <si>
-    <t>strip_spray_on3</t>
-  </si>
-  <si>
-    <t>strip_spray_on4</t>
-  </si>
-  <si>
-    <t>strip_spray_on5</t>
-  </si>
-  <si>
-    <t>strip_spray_on6</t>
-  </si>
-  <si>
-    <t>strip_spray_on7</t>
-  </si>
-  <si>
-    <t>strip_spray_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_FA_F1STSPON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_FA_F2STSPON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F3STSPON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F4STSPON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F5STSPON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F6STSPON</t>
-  </si>
-  <si>
-    <t>TN\L_FA_F7STSPON</t>
-  </si>
-  <si>
-    <t>r1_ent_dsc_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1_ext_dsc_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1_ent_dsc_on2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1_ext_dsc_on2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1_ent_dsc_on3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1_ext_dsc_on3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L2_R1_R1EXTDSCON</t>
-  </si>
-  <si>
-    <t>TN\L2_R1_R1ENTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F1BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F2BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F3BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F4BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F5BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F6BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F7BRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F1TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F2TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F3TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F4TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F5TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F6TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\\L_FA_F7TRLGLUBFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_center_ofs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on1</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on1</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_R1_R1ENTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_R1_R1EXTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on2</t>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on2</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on3</t>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on3</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on4</t>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on4</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on5</t>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on5</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on6</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on6</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on7</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on7</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on8</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on8</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on9</t>
-  </si>
-  <si>
-    <t>r2_ext_dsc_on9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on9</t>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L2_R2_R2ENTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L2_R2_R2EXTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R1_POND_P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R2_POND_P9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_R2_R2ENTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TN\L_R2_R2EXTDSCON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r2_ent_dsc_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>r1_ent_dsc_on1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>pos_shft1</t>
+  </si>
+  <si>
+    <t>pos_shft2</t>
+  </si>
+  <si>
+    <t>pos_shft3</t>
+  </si>
+  <si>
+    <t>pos_shft4</t>
+  </si>
+  <si>
+    <t>pos_shft5</t>
+  </si>
+  <si>
+    <t>pos_shft6</t>
+  </si>
+  <si>
+    <t>pos_shft7</t>
   </si>
 </sst>
 </file>
@@ -2803,14 +2779,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="D368" sqref="D368"/>
+    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
+      <selection activeCell="D198" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="3"/>
-    <col min="2" max="2" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.375" style="3" customWidth="1"/>
     <col min="5" max="16384" width="8.75" style="3"/>
@@ -2821,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>362</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2835,10 +2811,10 @@
         <v>1580</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
@@ -2852,7 +2828,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -2866,7 +2842,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -2880,7 +2856,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>60</v>
@@ -2891,10 +2867,10 @@
         <v>2250</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -2905,10 +2881,10 @@
         <v>2250</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>57</v>
@@ -2919,13 +2895,13 @@
         <v>1580</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2933,13 +2909,13 @@
         <v>2250</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>356</v>
+        <v>558</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2947,13 +2923,13 @@
         <v>1580</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
+        <v>604</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>393</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -2961,13 +2937,13 @@
         <v>1580</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>394</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -2975,13 +2951,13 @@
         <v>1580</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -2989,13 +2965,13 @@
         <v>1580</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -3003,10 +2979,10 @@
         <v>2250</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>71</v>
@@ -3017,10 +2993,10 @@
         <v>2250</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>72</v>
@@ -3031,10 +3007,10 @@
         <v>1580</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>63</v>
@@ -3045,10 +3021,10 @@
         <v>1580</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>64</v>
@@ -3059,13 +3035,13 @@
         <v>1580</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -3073,13 +3049,13 @@
         <v>1580</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -3087,10 +3063,10 @@
         <v>2250</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>65</v>
@@ -3101,10 +3077,10 @@
         <v>2250</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>66</v>
@@ -3115,10 +3091,10 @@
         <v>1580</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>67</v>
@@ -3129,10 +3105,10 @@
         <v>1580</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>68</v>
@@ -3143,13 +3119,13 @@
         <v>1580</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
@@ -3157,13 +3133,13 @@
         <v>1580</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
@@ -3171,10 +3147,10 @@
         <v>2250</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>73</v>
@@ -3185,10 +3161,10 @@
         <v>2250</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>74</v>
@@ -3199,10 +3175,10 @@
         <v>1580</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>69</v>
@@ -3213,10 +3189,10 @@
         <v>1580</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>70</v>
@@ -3227,13 +3203,13 @@
         <v>1580</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
@@ -3241,13 +3217,13 @@
         <v>1580</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
@@ -3255,10 +3231,10 @@
         <v>2250</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>75</v>
@@ -3269,10 +3245,10 @@
         <v>2250</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>76</v>
@@ -3283,13 +3259,13 @@
         <v>1580</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
@@ -3297,13 +3273,13 @@
         <v>2250</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
@@ -3311,13 +3287,13 @@
         <v>1580</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
@@ -3325,13 +3301,13 @@
         <v>1580</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
@@ -3339,13 +3315,13 @@
         <v>1580</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
@@ -3353,13 +3329,13 @@
         <v>1580</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
@@ -3367,13 +3343,13 @@
         <v>1580</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -3381,13 +3357,13 @@
         <v>1580</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
@@ -3395,13 +3371,13 @@
         <v>1580</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
@@ -3409,13 +3385,13 @@
         <v>2250</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
@@ -3423,13 +3399,13 @@
         <v>2250</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
@@ -3437,13 +3413,13 @@
         <v>2250</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D45" s="20" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
@@ -3451,13 +3427,13 @@
         <v>2250</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D46" s="20" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
@@ -3465,13 +3441,13 @@
         <v>2250</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
@@ -3479,13 +3455,13 @@
         <v>2250</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
@@ -3493,13 +3469,13 @@
         <v>2250</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>380</v>
+        <v>354</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
@@ -3507,13 +3483,13 @@
         <v>1580</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
@@ -3521,13 +3497,13 @@
         <v>2250</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>385</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>381</v>
+        <v>355</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
@@ -3535,10 +3511,10 @@
         <v>1580</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>373</v>
+        <v>605</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>2</v>
@@ -3549,10 +3525,10 @@
         <v>1580</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>3</v>
@@ -3563,10 +3539,10 @@
         <v>1580</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>375</v>
+        <v>607</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>4</v>
@@ -3577,10 +3553,10 @@
         <v>1580</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>376</v>
+        <v>608</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>5</v>
@@ -3591,10 +3567,10 @@
         <v>1580</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>6</v>
@@ -3605,10 +3581,10 @@
         <v>1580</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>378</v>
+        <v>610</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>7</v>
@@ -3619,10 +3595,10 @@
         <v>1580</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>379</v>
+        <v>611</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>8</v>
@@ -3633,10 +3609,10 @@
         <v>2250</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>373</v>
+        <v>605</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>9</v>
@@ -3647,10 +3623,10 @@
         <v>2250</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>374</v>
+        <v>606</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>15</v>
@@ -3661,10 +3637,10 @@
         <v>2250</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>375</v>
+        <v>607</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>10</v>
@@ -3675,10 +3651,10 @@
         <v>2250</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>376</v>
+        <v>608</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>11</v>
@@ -3689,10 +3665,10 @@
         <v>2250</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>12</v>
@@ -3703,10 +3679,10 @@
         <v>2250</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>378</v>
+        <v>610</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>13</v>
@@ -3717,10 +3693,10 @@
         <v>2250</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>379</v>
+        <v>611</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>14</v>
@@ -3731,10 +3707,10 @@
         <v>1580</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D66" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3724,7 @@
         <v>21</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>31</v>
@@ -3762,7 +3738,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D68" s="7" t="s">
         <v>32</v>
@@ -3776,7 +3752,7 @@
         <v>23</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D69" s="7" t="s">
         <v>33</v>
@@ -3790,7 +3766,7 @@
         <v>24</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>34</v>
@@ -3804,7 +3780,7 @@
         <v>20</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D71" s="7" t="s">
         <v>25</v>
@@ -3818,7 +3794,7 @@
         <v>21</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D72" s="7" t="s">
         <v>26</v>
@@ -3832,7 +3808,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>27</v>
@@ -3843,10 +3819,10 @@
         <v>2250</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>28</v>
@@ -3857,10 +3833,10 @@
         <v>2250</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>29</v>
@@ -3871,13 +3847,13 @@
         <v>1580</v>
       </c>
       <c r="B76" s="17" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
@@ -3885,13 +3861,13 @@
         <v>2250</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
@@ -3899,13 +3875,13 @@
         <v>1580</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
@@ -3913,13 +3889,13 @@
         <v>1580</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
@@ -3927,13 +3903,13 @@
         <v>2250</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
@@ -3941,10 +3917,10 @@
         <v>1580</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>48</v>
@@ -3958,7 +3934,7 @@
         <v>36</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>49</v>
@@ -3972,7 +3948,7 @@
         <v>37</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>50</v>
@@ -3986,7 +3962,7 @@
         <v>38</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>47</v>
@@ -4000,7 +3976,7 @@
         <v>39</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>51</v>
@@ -4014,7 +3990,7 @@
         <v>40</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>52</v>
@@ -4028,7 +4004,7 @@
         <v>35</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>42</v>
@@ -4042,7 +4018,7 @@
         <v>36</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>43</v>
@@ -4056,7 +4032,7 @@
         <v>37</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>44</v>
@@ -4070,7 +4046,7 @@
         <v>53</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>41</v>
@@ -4084,7 +4060,7 @@
         <v>39</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>45</v>
@@ -4095,10 +4071,10 @@
         <v>2250</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>46</v>
@@ -4109,10 +4085,10 @@
         <v>1580</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>56</v>
@@ -4126,7 +4102,7 @@
         <v>54</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>55</v>
@@ -4137,13 +4113,13 @@
         <v>1580</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
@@ -4151,13 +4127,13 @@
         <v>2250</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
@@ -4165,10 +4141,10 @@
         <v>1580</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>333</v>
+        <v>579</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>61</v>
@@ -4179,10 +4155,10 @@
         <v>2250</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>62</v>
@@ -4193,13 +4169,13 @@
         <v>1580</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
@@ -4207,13 +4183,13 @@
         <v>2250</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
@@ -4221,10 +4197,10 @@
         <v>1580</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>83</v>
@@ -4238,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>82</v>
@@ -4249,13 +4225,13 @@
         <v>1580</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
@@ -4263,13 +4239,13 @@
         <v>2250</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
@@ -4277,13 +4253,13 @@
         <v>1580</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
@@ -4291,13 +4267,13 @@
         <v>2250</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
@@ -4305,13 +4281,13 @@
         <v>1580</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
@@ -4319,13 +4295,13 @@
         <v>2250</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
@@ -4333,13 +4309,13 @@
         <v>1580</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
@@ -4350,10 +4326,10 @@
         <v>78</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>387</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
@@ -4361,13 +4337,13 @@
         <v>1580</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
@@ -4375,13 +4351,13 @@
         <v>2250</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.15">
@@ -4389,10 +4365,10 @@
         <v>1580</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>81</v>
@@ -4406,7 +4382,7 @@
         <v>79</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>80</v>
@@ -4417,13 +4393,13 @@
         <v>1580</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>84</v>
+        <v>557</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
@@ -4434,10 +4410,10 @@
         <v>85</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
@@ -4448,10 +4424,10 @@
         <v>86</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
@@ -4462,10 +4438,10 @@
         <v>87</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
@@ -4476,10 +4452,10 @@
         <v>88</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.15">
@@ -4490,10 +4466,10 @@
         <v>89</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
@@ -4504,10 +4480,10 @@
         <v>90</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
@@ -4518,10 +4494,10 @@
         <v>84</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
@@ -4532,10 +4508,10 @@
         <v>85</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
@@ -4546,10 +4522,10 @@
         <v>86</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
@@ -4560,10 +4536,10 @@
         <v>87</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.15">
@@ -4574,10 +4550,10 @@
         <v>88</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.15">
@@ -4588,10 +4564,10 @@
         <v>89</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
@@ -4602,10 +4578,10 @@
         <v>90</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
@@ -4613,13 +4589,13 @@
         <v>1580</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
@@ -4630,10 +4606,10 @@
         <v>91</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
@@ -4644,10 +4620,10 @@
         <v>92</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
@@ -4658,10 +4634,10 @@
         <v>93</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
@@ -4672,10 +4648,10 @@
         <v>94</v>
       </c>
       <c r="C133" s="11" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
@@ -4686,10 +4662,10 @@
         <v>95</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
@@ -4700,10 +4676,10 @@
         <v>96</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
@@ -4711,10 +4687,10 @@
         <v>2250</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D136" s="11" t="s">
         <v>107</v>
@@ -4728,7 +4704,7 @@
         <v>91</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D137" s="11" t="s">
         <v>108</v>
@@ -4742,7 +4718,7 @@
         <v>92</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>109</v>
@@ -4756,7 +4732,7 @@
         <v>93</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D139" s="11" t="s">
         <v>110</v>
@@ -4770,7 +4746,7 @@
         <v>94</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>104</v>
@@ -4784,7 +4760,7 @@
         <v>95</v>
       </c>
       <c r="C141" s="11" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D141" s="11" t="s">
         <v>105</v>
@@ -4798,7 +4774,7 @@
         <v>96</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>106</v>
@@ -4812,10 +4788,10 @@
         <v>97</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.15">
@@ -4826,10 +4802,10 @@
         <v>98</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.15">
@@ -4840,10 +4816,10 @@
         <v>99</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.15">
@@ -4854,10 +4830,10 @@
         <v>100</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.15">
@@ -4868,10 +4844,10 @@
         <v>101</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
@@ -4882,10 +4858,10 @@
         <v>102</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
@@ -4896,10 +4872,10 @@
         <v>103</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.15">
@@ -4910,7 +4886,7 @@
         <v>97</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>111</v>
@@ -4924,7 +4900,7 @@
         <v>98</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>112</v>
@@ -4938,7 +4914,7 @@
         <v>99</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>113</v>
@@ -4952,7 +4928,7 @@
         <v>100</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>114</v>
@@ -4966,7 +4942,7 @@
         <v>101</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>115</v>
@@ -4980,7 +4956,7 @@
         <v>102</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>116</v>
@@ -4994,7 +4970,7 @@
         <v>103</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>117</v>
@@ -5005,13 +4981,13 @@
         <v>1580</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>323</v>
+        <v>583</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
@@ -5019,13 +4995,13 @@
         <v>1580</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>119</v>
+        <v>584</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
@@ -5033,13 +5009,13 @@
         <v>1580</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>120</v>
+        <v>585</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
@@ -5047,13 +5023,13 @@
         <v>1580</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>121</v>
+        <v>586</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.15">
@@ -5061,13 +5037,13 @@
         <v>1580</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>122</v>
+        <v>587</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.15">
@@ -5075,13 +5051,13 @@
         <v>1580</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>123</v>
+        <v>588</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.15">
@@ -5089,13 +5065,13 @@
         <v>1580</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>124</v>
+        <v>589</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
@@ -5103,13 +5079,13 @@
         <v>2250</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
@@ -5117,13 +5093,13 @@
         <v>2250</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
@@ -5131,13 +5107,13 @@
         <v>2250</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
@@ -5145,13 +5121,13 @@
         <v>2250</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D167" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.15">
@@ -5159,13 +5135,13 @@
         <v>2250</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.15">
@@ -5173,13 +5149,13 @@
         <v>2250</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
@@ -5187,13 +5163,13 @@
         <v>2250</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
@@ -5201,13 +5177,13 @@
         <v>1580</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>324</v>
+        <v>590</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
@@ -5215,13 +5191,13 @@
         <v>1580</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>157</v>
+        <v>591</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
@@ -5229,13 +5205,13 @@
         <v>1580</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>158</v>
+        <v>592</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.15">
@@ -5243,13 +5219,13 @@
         <v>1580</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>159</v>
+        <v>593</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.15">
@@ -5257,13 +5233,13 @@
         <v>1580</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>160</v>
+        <v>594</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
@@ -5271,13 +5247,13 @@
         <v>1580</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>161</v>
+        <v>595</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.15">
@@ -5285,13 +5261,13 @@
         <v>1580</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>162</v>
+        <v>596</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.15">
@@ -5299,13 +5275,13 @@
         <v>2250</v>
       </c>
       <c r="B178" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.15">
@@ -5313,13 +5289,13 @@
         <v>2250</v>
       </c>
       <c r="B179" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.15">
@@ -5327,13 +5303,13 @@
         <v>2250</v>
       </c>
       <c r="B180" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.15">
@@ -5341,13 +5317,13 @@
         <v>2250</v>
       </c>
       <c r="B181" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
@@ -5355,13 +5331,13 @@
         <v>2250</v>
       </c>
       <c r="B182" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
@@ -5369,13 +5345,13 @@
         <v>2250</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
@@ -5383,13 +5359,13 @@
         <v>2250</v>
       </c>
       <c r="B184" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
@@ -5397,10 +5373,10 @@
         <v>1580</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D185" s="7"/>
     </row>
@@ -5409,10 +5385,10 @@
         <v>1580</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D186" s="7"/>
     </row>
@@ -5421,10 +5397,10 @@
         <v>1580</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D187" s="7"/>
     </row>
@@ -5433,10 +5409,10 @@
         <v>1580</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D188" s="7"/>
     </row>
@@ -5445,10 +5421,10 @@
         <v>1580</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D189" s="7"/>
     </row>
@@ -5457,10 +5433,10 @@
         <v>1580</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D190" s="7"/>
     </row>
@@ -5469,10 +5445,10 @@
         <v>1580</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D191" s="7"/>
     </row>
@@ -5481,10 +5457,10 @@
         <v>1580</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D192" s="12"/>
     </row>
@@ -5493,10 +5469,10 @@
         <v>1580</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D193" s="12"/>
     </row>
@@ -5505,10 +5481,10 @@
         <v>1580</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D194" s="12"/>
     </row>
@@ -5517,10 +5493,10 @@
         <v>1580</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D195" s="12"/>
     </row>
@@ -5529,10 +5505,10 @@
         <v>1580</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D196" s="12"/>
     </row>
@@ -5541,10 +5517,10 @@
         <v>1580</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D197" s="12"/>
     </row>
@@ -5553,10 +5529,10 @@
         <v>1580</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D198" s="12"/>
     </row>
@@ -5565,13 +5541,13 @@
         <v>2250</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>525</v>
+        <v>469</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.15">
@@ -5579,13 +5555,13 @@
         <v>2250</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.15">
@@ -5593,13 +5569,13 @@
         <v>2250</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>527</v>
+        <v>471</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.15">
@@ -5607,13 +5583,13 @@
         <v>2250</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>528</v>
+        <v>472</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.15">
@@ -5621,13 +5597,13 @@
         <v>2250</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>529</v>
+        <v>473</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.15">
@@ -5635,13 +5611,13 @@
         <v>2250</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.15">
@@ -5649,13 +5625,13 @@
         <v>2250</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>531</v>
+        <v>475</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.15">
@@ -5663,13 +5639,13 @@
         <v>2250</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>518</v>
+        <v>462</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
@@ -5677,13 +5653,13 @@
         <v>2250</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>519</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.15">
@@ -5691,13 +5667,13 @@
         <v>2250</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>520</v>
+        <v>464</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.15">
@@ -5705,13 +5681,13 @@
         <v>2250</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>521</v>
+        <v>465</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
@@ -5719,13 +5695,13 @@
         <v>2250</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>522</v>
+        <v>466</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
@@ -5733,13 +5709,13 @@
         <v>2250</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>523</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
@@ -5747,13 +5723,13 @@
         <v>2250</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>524</v>
+        <v>468</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.15">
@@ -5761,13 +5737,13 @@
         <v>1580</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.15">
@@ -5775,13 +5751,13 @@
         <v>1580</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.15">
@@ -5789,13 +5765,13 @@
         <v>1580</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.15">
@@ -5803,13 +5779,13 @@
         <v>1580</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.15">
@@ -5817,13 +5793,13 @@
         <v>1580</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.15">
@@ -5831,13 +5807,13 @@
         <v>1580</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.15">
@@ -5845,13 +5821,13 @@
         <v>1580</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.15">
@@ -5859,13 +5835,13 @@
         <v>2250</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
@@ -5873,13 +5849,13 @@
         <v>2250</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
@@ -5887,13 +5863,13 @@
         <v>2250</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.15">
@@ -5901,13 +5877,13 @@
         <v>2250</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.15">
@@ -5915,13 +5891,13 @@
         <v>2250</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.15">
@@ -5929,13 +5905,13 @@
         <v>2250</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.15">
@@ -5943,13 +5919,13 @@
         <v>2250</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
@@ -5957,13 +5933,13 @@
         <v>1580</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>334</v>
+        <v>581</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
@@ -5971,13 +5947,13 @@
         <v>2250</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>226</v>
+        <v>582</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.15">
@@ -5985,13 +5961,13 @@
         <v>1580</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="C229" s="11" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D229" s="11" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.15">
@@ -5999,13 +5975,13 @@
         <v>1580</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.15">
@@ -6013,13 +5989,13 @@
         <v>1580</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D231" s="11" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
@@ -6027,13 +6003,13 @@
         <v>1580</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
@@ -6041,13 +6017,13 @@
         <v>1580</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D233" s="11" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.15">
@@ -6055,13 +6031,13 @@
         <v>1580</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.15">
@@ -6069,13 +6045,13 @@
         <v>1580</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D235" s="11" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.15">
@@ -6083,13 +6059,13 @@
         <v>2250</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.15">
@@ -6097,13 +6073,13 @@
         <v>2250</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.15">
@@ -6111,13 +6087,13 @@
         <v>2250</v>
       </c>
       <c r="B238" s="14" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.15">
@@ -6125,13 +6101,13 @@
         <v>2250</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.15">
@@ -6139,13 +6115,13 @@
         <v>2250</v>
       </c>
       <c r="B240" s="14" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.15">
@@ -6153,13 +6129,13 @@
         <v>2250</v>
       </c>
       <c r="B241" s="14" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.15">
@@ -6167,13 +6143,13 @@
         <v>2250</v>
       </c>
       <c r="B242" s="14" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.15">
@@ -6181,13 +6157,13 @@
         <v>1580</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C243" s="15" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D243" s="15" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.15">
@@ -6195,13 +6171,13 @@
         <v>1580</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C244" s="15" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D244" s="15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
@@ -6209,13 +6185,13 @@
         <v>1580</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C245" s="15" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D245" s="15" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
@@ -6223,13 +6199,13 @@
         <v>1580</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C246" s="15" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D246" s="15" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.15">
@@ -6237,13 +6213,13 @@
         <v>1580</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D247" s="15" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.15">
@@ -6251,13 +6227,13 @@
         <v>1580</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D248" s="15" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.15">
@@ -6265,13 +6241,13 @@
         <v>1580</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.15">
@@ -6279,13 +6255,13 @@
         <v>2250</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C250" s="15" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D250" s="15" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.15">
@@ -6293,13 +6269,13 @@
         <v>2250</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C251" s="15" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D251" s="15" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.15">
@@ -6307,13 +6283,13 @@
         <v>2250</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C252" s="15" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D252" s="15" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.15">
@@ -6321,13 +6297,13 @@
         <v>2250</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C253" s="15" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D253" s="15" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.15">
@@ -6335,13 +6311,13 @@
         <v>2250</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D254" s="15" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.15">
@@ -6349,13 +6325,13 @@
         <v>2250</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D255" s="15" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.15">
@@ -6363,13 +6339,13 @@
         <v>2250</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D256" s="15" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.15">
@@ -6377,13 +6353,13 @@
         <v>1580</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.15">
@@ -6391,13 +6367,13 @@
         <v>1580</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
@@ -6405,13 +6381,13 @@
         <v>1580</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
@@ -6419,13 +6395,13 @@
         <v>1580</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.15">
@@ -6433,13 +6409,13 @@
         <v>1580</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.15">
@@ -6447,13 +6423,13 @@
         <v>1580</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.15">
@@ -6461,13 +6437,13 @@
         <v>2250</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.15">
@@ -6475,13 +6451,13 @@
         <v>2250</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.15">
@@ -6489,13 +6465,13 @@
         <v>2250</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.15">
@@ -6503,13 +6479,13 @@
         <v>2250</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.15">
@@ -6517,13 +6493,13 @@
         <v>2250</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.15">
@@ -6531,13 +6507,13 @@
         <v>2250</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.15">
@@ -6545,10 +6521,10 @@
         <v>1580</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
       <c r="C269" s="21" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.15">
@@ -6556,10 +6532,10 @@
         <v>1580</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
       <c r="C270" s="21" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.15">
@@ -6567,10 +6543,10 @@
         <v>1580</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>430</v>
+        <v>599</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.15">
@@ -6578,10 +6554,10 @@
         <v>1580</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>432</v>
+        <v>600</v>
       </c>
       <c r="C272" s="21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.15">
@@ -6589,10 +6565,10 @@
         <v>1580</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>433</v>
+        <v>601</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.15">
@@ -6600,10 +6576,10 @@
         <v>1580</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>434</v>
+        <v>602</v>
       </c>
       <c r="C274" s="21" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.15">
@@ -6611,10 +6587,10 @@
         <v>1580</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>435</v>
+        <v>603</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.15">
@@ -6622,13 +6598,13 @@
         <v>2250</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
       <c r="C276" s="21" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>436</v>
+        <v>401</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.15">
@@ -6636,13 +6612,13 @@
         <v>2250</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.15">
@@ -6650,13 +6626,13 @@
         <v>2250</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>430</v>
+        <v>599</v>
       </c>
       <c r="C278" s="21" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>438</v>
+        <v>403</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.15">
@@ -6664,13 +6640,13 @@
         <v>2250</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>431</v>
+        <v>600</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>439</v>
+        <v>404</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.15">
@@ -6678,13 +6654,13 @@
         <v>2250</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>433</v>
+        <v>601</v>
       </c>
       <c r="C280" s="21" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>440</v>
+        <v>405</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.15">
@@ -6692,13 +6668,13 @@
         <v>2250</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>434</v>
+        <v>602</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.15">
@@ -6706,13 +6682,13 @@
         <v>2250</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>435</v>
+        <v>603</v>
       </c>
       <c r="C282" s="21" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.15">
@@ -6720,13 +6696,13 @@
         <v>1580</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>443</v>
+        <v>559</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>444</v>
+        <v>408</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>445</v>
+        <v>409</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.15">
@@ -6734,13 +6710,13 @@
         <v>1580</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>446</v>
+        <v>560</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.15">
@@ -6748,13 +6724,13 @@
         <v>1580</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>448</v>
+        <v>561</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>449</v>
+        <v>411</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.15">
@@ -6762,13 +6738,13 @@
         <v>1580</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.15">
@@ -6776,13 +6752,13 @@
         <v>1580</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>452</v>
+        <v>563</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.15">
@@ -6790,13 +6766,13 @@
         <v>1580</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>454</v>
+        <v>564</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.15">
@@ -6804,13 +6780,13 @@
         <v>2250</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>443</v>
+        <v>559</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.15">
@@ -6818,13 +6794,13 @@
         <v>2250</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>446</v>
+        <v>560</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.15">
@@ -6832,13 +6808,13 @@
         <v>2250</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>448</v>
+        <v>561</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.15">
@@ -6846,13 +6822,13 @@
         <v>2250</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.15">
@@ -6860,13 +6836,13 @@
         <v>2250</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>452</v>
+        <v>563</v>
       </c>
       <c r="C293" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.15">
@@ -6874,13 +6850,13 @@
         <v>2250</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>454</v>
+        <v>564</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.15">
@@ -6888,10 +6864,10 @@
         <v>1580</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D295" s="2"/>
     </row>
@@ -6900,10 +6876,10 @@
         <v>1580</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>463</v>
+        <v>566</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D296" s="2"/>
     </row>
@@ -6912,10 +6888,10 @@
         <v>1580</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D297" s="2"/>
     </row>
@@ -6924,10 +6900,10 @@
         <v>1580</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D298" s="2"/>
     </row>
@@ -6936,10 +6912,10 @@
         <v>1580</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D299" s="2"/>
     </row>
@@ -6948,10 +6924,10 @@
         <v>1580</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>475</v>
+        <v>570</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D300" s="2"/>
     </row>
@@ -6960,10 +6936,10 @@
         <v>1580</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D301" s="2"/>
     </row>
@@ -6972,13 +6948,13 @@
         <v>2250</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>476</v>
+        <v>427</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.15">
@@ -6986,13 +6962,13 @@
         <v>2250</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>463</v>
+        <v>566</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.15">
@@ -7000,13 +6976,13 @@
         <v>2250</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.15">
@@ -7014,13 +6990,13 @@
         <v>2250</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>474</v>
+        <v>568</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.15">
@@ -7028,13 +7004,13 @@
         <v>2250</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>464</v>
+        <v>569</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.15">
@@ -7042,13 +7018,13 @@
         <v>2250</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>471</v>
+        <v>425</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.15">
@@ -7056,13 +7032,13 @@
         <v>2250</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>465</v>
+        <v>571</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.15">
@@ -7070,10 +7046,10 @@
         <v>1580</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>477</v>
+        <v>572</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D309" s="4"/>
     </row>
@@ -7082,10 +7058,10 @@
         <v>1580</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D310" s="4"/>
     </row>
@@ -7094,10 +7070,10 @@
         <v>1580</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>479</v>
+        <v>574</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D311" s="4"/>
     </row>
@@ -7106,10 +7082,10 @@
         <v>1580</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>480</v>
+        <v>575</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D312" s="4"/>
     </row>
@@ -7118,10 +7094,10 @@
         <v>1580</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>481</v>
+        <v>576</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D313" s="4"/>
     </row>
@@ -7130,10 +7106,10 @@
         <v>1580</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>482</v>
+        <v>577</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D314" s="4"/>
     </row>
@@ -7142,10 +7118,10 @@
         <v>1580</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>483</v>
+        <v>578</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D315" s="4"/>
     </row>
@@ -7154,13 +7130,13 @@
         <v>2250</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>477</v>
+        <v>572</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.15">
@@ -7168,13 +7144,13 @@
         <v>2250</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>478</v>
+        <v>573</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.15">
@@ -7182,13 +7158,13 @@
         <v>2250</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>479</v>
+        <v>574</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.15">
@@ -7196,13 +7172,13 @@
         <v>2250</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>480</v>
+        <v>575</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>487</v>
+        <v>431</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.15">
@@ -7210,13 +7186,13 @@
         <v>2250</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>481</v>
+        <v>576</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>488</v>
+        <v>432</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.15">
@@ -7224,13 +7200,13 @@
         <v>2250</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>482</v>
+        <v>577</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>489</v>
+        <v>433</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.15">
@@ -7238,13 +7214,13 @@
         <v>2250</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>483</v>
+        <v>578</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>490</v>
+        <v>434</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.15">
@@ -7252,10 +7228,10 @@
         <v>1580</v>
       </c>
       <c r="B323" s="22" t="s">
-        <v>491</v>
+        <v>435</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D323" s="22"/>
     </row>
@@ -7264,10 +7240,10 @@
         <v>1580</v>
       </c>
       <c r="B324" s="22" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D324" s="22"/>
     </row>
@@ -7276,10 +7252,10 @@
         <v>1580</v>
       </c>
       <c r="B325" s="22" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D325" s="22"/>
     </row>
@@ -7288,10 +7264,10 @@
         <v>1580</v>
       </c>
       <c r="B326" s="22" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D326" s="22"/>
     </row>
@@ -7300,10 +7276,10 @@
         <v>1580</v>
       </c>
       <c r="B327" s="22" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D327" s="22"/>
     </row>
@@ -7312,10 +7288,10 @@
         <v>1580</v>
       </c>
       <c r="B328" s="22" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="C328" s="22" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D328" s="22"/>
     </row>
@@ -7324,10 +7300,10 @@
         <v>1580</v>
       </c>
       <c r="B329" s="22" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D329" s="22"/>
     </row>
@@ -7336,13 +7312,13 @@
         <v>2250</v>
       </c>
       <c r="B330" s="22" t="s">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="C330" s="22" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D330" s="22" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.15">
@@ -7350,13 +7326,13 @@
         <v>2250</v>
       </c>
       <c r="B331" s="22" t="s">
-        <v>492</v>
+        <v>436</v>
       </c>
       <c r="C331" s="22" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>500</v>
+        <v>444</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.15">
@@ -7364,13 +7340,13 @@
         <v>2250</v>
       </c>
       <c r="B332" s="22" t="s">
-        <v>493</v>
+        <v>437</v>
       </c>
       <c r="C332" s="22" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D332" s="22" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.15">
@@ -7378,13 +7354,13 @@
         <v>2250</v>
       </c>
       <c r="B333" s="22" t="s">
-        <v>494</v>
+        <v>438</v>
       </c>
       <c r="C333" s="22" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="D333" s="22" t="s">
-        <v>502</v>
+        <v>446</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.15">
@@ -7392,13 +7368,13 @@
         <v>2250</v>
       </c>
       <c r="B334" s="22" t="s">
-        <v>495</v>
+        <v>439</v>
       </c>
       <c r="C334" s="22" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D334" s="22" t="s">
-        <v>503</v>
+        <v>447</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.15">
@@ -7406,13 +7382,13 @@
         <v>2250</v>
       </c>
       <c r="B335" s="22" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D335" s="22" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.15">
@@ -7420,13 +7396,13 @@
         <v>2250</v>
       </c>
       <c r="B336" s="22" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
       <c r="C336" s="22" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D336" s="22" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.15">
@@ -7434,13 +7410,13 @@
         <v>1580</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>613</v>
+        <v>556</v>
       </c>
       <c r="C337" s="4" t="s">
-        <v>570</v>
+        <v>513</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.15">
@@ -7448,13 +7424,13 @@
         <v>1580</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.15">
@@ -7462,13 +7438,13 @@
         <v>1580</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>513</v>
+        <v>457</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.15">
@@ -7476,13 +7452,13 @@
         <v>1580</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="C340" s="4" t="s">
-        <v>514</v>
+        <v>458</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.15">
@@ -7490,13 +7466,13 @@
         <v>1580</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>517</v>
+        <v>461</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.15">
@@ -7504,13 +7480,13 @@
         <v>1580</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="C342" s="4" t="s">
-        <v>515</v>
+        <v>459</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>516</v>
+        <v>460</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.15">
@@ -7518,13 +7494,13 @@
         <v>2250</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.15">
@@ -7532,13 +7508,13 @@
         <v>2250</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.15">
@@ -7546,13 +7522,13 @@
         <v>2250</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>590</v>
+        <v>533</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.15">
@@ -7560,13 +7536,13 @@
         <v>2250</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>510</v>
+        <v>454</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.15">
@@ -7574,13 +7550,13 @@
         <v>2250</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>511</v>
+        <v>455</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>536</v>
+        <v>479</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.15">
@@ -7588,13 +7564,13 @@
         <v>2250</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>512</v>
+        <v>456</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>592</v>
+        <v>535</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>537</v>
+        <v>480</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.15">
@@ -7602,13 +7578,13 @@
         <v>1580</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>612</v>
+        <v>555</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.15">
@@ -7616,13 +7592,13 @@
         <v>1580</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="C350" s="7" t="s">
-        <v>571</v>
+        <v>514</v>
       </c>
       <c r="D350" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.15">
@@ -7630,13 +7606,13 @@
         <v>1580</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>539</v>
+        <v>482</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>572</v>
+        <v>515</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.15">
@@ -7644,13 +7620,13 @@
         <v>1580</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>541</v>
+        <v>484</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>573</v>
+        <v>516</v>
       </c>
       <c r="D352" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.15">
@@ -7658,13 +7634,13 @@
         <v>1580</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>543</v>
+        <v>486</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>574</v>
+        <v>517</v>
       </c>
       <c r="D353" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.15">
@@ -7672,13 +7648,13 @@
         <v>1580</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>545</v>
+        <v>488</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>575</v>
+        <v>518</v>
       </c>
       <c r="D354" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.15">
@@ -7686,13 +7662,13 @@
         <v>1580</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>547</v>
+        <v>490</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>576</v>
+        <v>519</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.15">
@@ -7700,13 +7676,13 @@
         <v>1580</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>549</v>
+        <v>492</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>577</v>
+        <v>520</v>
       </c>
       <c r="D356" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.15">
@@ -7714,13 +7690,13 @@
         <v>1580</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>578</v>
+        <v>521</v>
       </c>
       <c r="D357" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.15">
@@ -7728,13 +7704,13 @@
         <v>1580</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>553</v>
+        <v>496</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="D358" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.15">
@@ -7742,13 +7718,13 @@
         <v>1580</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.15">
@@ -7756,13 +7732,13 @@
         <v>1580</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>556</v>
+        <v>499</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="D360" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.15">
@@ -7770,13 +7746,13 @@
         <v>1580</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>567</v>
+        <v>510</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="D361" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.15">
@@ -7784,13 +7760,13 @@
         <v>1580</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="C362" s="7" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="D362" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.15">
@@ -7798,13 +7774,13 @@
         <v>1580</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="D363" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.15">
@@ -7812,13 +7788,13 @@
         <v>1580</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="C364" s="7" t="s">
-        <v>584</v>
+        <v>527</v>
       </c>
       <c r="D364" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.15">
@@ -7826,13 +7802,13 @@
         <v>1580</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>585</v>
+        <v>528</v>
       </c>
       <c r="D365" s="7" t="s">
-        <v>587</v>
+        <v>530</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.15">
@@ -7840,13 +7816,13 @@
         <v>1580</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>586</v>
+        <v>529</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>588</v>
+        <v>531</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.15">
@@ -7854,13 +7830,13 @@
         <v>2250</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>533</v>
+        <v>476</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>593</v>
+        <v>536</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.15">
@@ -7868,13 +7844,13 @@
         <v>2250</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>534</v>
+        <v>477</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.15">
@@ -7882,13 +7858,13 @@
         <v>2250</v>
       </c>
       <c r="B369" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C369" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="C369" s="11" t="s">
-        <v>595</v>
-      </c>
       <c r="D369" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.15">
@@ -7896,13 +7872,13 @@
         <v>2250</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>540</v>
+        <v>483</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.15">
@@ -7910,13 +7886,13 @@
         <v>2250</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.15">
@@ -7924,13 +7900,13 @@
         <v>2250</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>544</v>
+        <v>487</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.15">
@@ -7938,13 +7914,13 @@
         <v>2250</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>546</v>
+        <v>489</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.15">
@@ -7952,13 +7928,13 @@
         <v>2250</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>548</v>
+        <v>491</v>
       </c>
       <c r="C374" s="11" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.15">
@@ -7966,13 +7942,13 @@
         <v>2250</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>550</v>
+        <v>493</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.15">
@@ -7980,13 +7956,13 @@
         <v>2250</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>552</v>
+        <v>495</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.15">
@@ -7994,13 +7970,13 @@
         <v>2250</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>554</v>
+        <v>497</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>602</v>
+        <v>545</v>
       </c>
       <c r="D377" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.15">
@@ -8008,13 +7984,13 @@
         <v>2250</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.15">
@@ -8022,13 +7998,13 @@
         <v>2250</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="C379" s="11" t="s">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.15">
@@ -8036,13 +8012,13 @@
         <v>2250</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>605</v>
+        <v>548</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.15">
@@ -8050,13 +8026,13 @@
         <v>2250</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="C381" s="11" t="s">
-        <v>606</v>
+        <v>549</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.15">
@@ -8064,13 +8040,13 @@
         <v>2250</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>607</v>
+        <v>550</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.15">
@@ -8078,13 +8054,13 @@
         <v>2250</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="C383" s="11" t="s">
-        <v>608</v>
+        <v>551</v>
       </c>
       <c r="D383" s="11" t="s">
-        <v>610</v>
+        <v>553</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.15">
@@ -8092,13 +8068,13 @@
         <v>2250</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>609</v>
+        <v>552</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>611</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
